--- a/data/Periodic-table/periodic_table.xlsx
+++ b/data/Periodic-table/periodic_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/Projects/Machine Learning/Novamag_Database_Files/Periodic-table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/Projects/Machine-Learning/ML-alloy-design/data/Periodic-table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67309E9D-1BF3-1C43-932F-E810A1C8DEB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E4FE0B-093A-B94E-BF80-69D03824E842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19580" yWindow="460" windowWidth="14340" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14460" yWindow="460" windowWidth="14340" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="2003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="2004">
   <si>
     <t>number</t>
   </si>
@@ -7181,6 +7181,9 @@
   </si>
   <si>
     <t>valence</t>
+  </si>
+  <si>
+    <t>group 3, f-block</t>
   </si>
 </sst>
 </file>
@@ -7523,10 +7526,10 @@
   <dimension ref="A1:BV118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB109" sqref="AB109"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15230,7 +15233,7 @@
         <v>57</v>
       </c>
       <c r="H58" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I58">
         <v>6</v>
@@ -15367,7 +15370,7 @@
         <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I59">
         <v>6</v>
@@ -15510,7 +15513,7 @@
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I60">
         <v>6</v>
@@ -15644,7 +15647,7 @@
         <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I61">
         <v>6</v>
@@ -15778,7 +15781,7 @@
         <v>61</v>
       </c>
       <c r="H62" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I62">
         <v>6</v>
@@ -15897,7 +15900,7 @@
         <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I63">
         <v>6</v>
@@ -16037,7 +16040,7 @@
         <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I64">
         <v>6</v>
@@ -16168,7 +16171,7 @@
         <v>64</v>
       </c>
       <c r="H65" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I65">
         <v>6</v>
@@ -16305,7 +16308,7 @@
         <v>65</v>
       </c>
       <c r="H66" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I66">
         <v>6</v>
@@ -16442,7 +16445,7 @@
         <v>66</v>
       </c>
       <c r="H67" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I67">
         <v>6</v>
@@ -16576,7 +16579,7 @@
         <v>67</v>
       </c>
       <c r="H68" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I68">
         <v>6</v>
@@ -16710,7 +16713,7 @@
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I69">
         <v>6</v>
@@ -16847,7 +16850,7 @@
         <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I70">
         <v>6</v>
@@ -16981,7 +16984,7 @@
         <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>1054</v>
+        <v>2003</v>
       </c>
       <c r="I71">
         <v>6</v>
@@ -17121,7 +17124,7 @@
         <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>1340</v>
+        <v>458</v>
       </c>
       <c r="I72">
         <v>6</v>
